--- a/data/trans_orig/Q04B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q04B-Habitat-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>3.353517322478122</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.313075386322695</v>
+        <v>3.313075386322696</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>3.184749558797622</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.122857059982006</v>
+        <v>3.126665947481839</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.057192557564439</v>
+        <v>3.052491186119598</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.262087788338605</v>
+        <v>3.266355707450793</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.250071195532505</v>
+        <v>3.247370523826738</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.13030549840112</v>
+        <v>3.130794652303953</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.078893070976751</v>
+        <v>3.078864834430659</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.329718255305515</v>
+        <v>3.326576714370741</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.265213662792346</v>
+        <v>3.268723263985132</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.14274814551134</v>
+        <v>3.141406901852061</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.090504593512402</v>
+        <v>3.089302368986924</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3.323283028613746</v>
+        <v>3.316467700754827</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>3.274572006822348</v>
+        <v>3.277297516756605</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.228339816946157</v>
+        <v>3.227880061407019</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.196862840196804</v>
+        <v>3.193267698412884</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.455595346686362</v>
+        <v>3.446400422297138</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.379678850579122</v>
+        <v>3.375107921959543</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.240578067918839</v>
+        <v>3.24266487501172</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.20911901983773</v>
+        <v>3.211762910970927</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.51064681615801</v>
+        <v>3.499555695321505</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.355096956394714</v>
+        <v>3.356648184210346</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.218143797739865</v>
+        <v>3.217553563881668</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3.180641891973834</v>
+        <v>3.183523592995591</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3.447750568808816</v>
+        <v>3.445474573005221</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>3.350926606979848</v>
+        <v>3.354817911845781</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>3.291296393299769</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>3.267503777954261</v>
+        <v>3.26750377795426</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>3.130483803121622</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.084994215335047</v>
+        <v>3.089200271776969</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.018667604639015</v>
+        <v>3.014233314620736</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.205112257319027</v>
+        <v>3.199120480682985</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.233821617424918</v>
+        <v>3.229482308186539</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.081965546098084</v>
+        <v>3.078555033285061</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.048629031739802</v>
+        <v>3.050425924638134</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>3.229989282099962</v>
+        <v>3.23715363883304</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>3.227719838516115</v>
+        <v>3.230189053620989</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>3.095729995404295</v>
+        <v>3.096798779385235</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3.043945602709536</v>
+        <v>3.045908343593395</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3.230858540794464</v>
+        <v>3.234150202605126</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>3.243464955706654</v>
+        <v>3.243905259171183</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.182139950835897</v>
+        <v>3.184085100625583</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.111780869056331</v>
+        <v>3.107989576634028</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.314433954508754</v>
+        <v>3.31239851265665</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.338622276261654</v>
+        <v>3.3363027373881</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.173695968111833</v>
+        <v>3.170564757329637</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.147030918066022</v>
+        <v>3.145468121543212</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.349425050959794</v>
+        <v>3.35304542895153</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.309477335128188</v>
+        <v>3.303730637648968</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.163870268882378</v>
+        <v>3.162361535249075</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3.11263490860962</v>
+        <v>3.114359231033903</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3.315585614160853</v>
+        <v>3.319664398421263</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>3.309135611308423</v>
+        <v>3.309435418200959</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>2.929592800045022</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>3.092739478093015</v>
+        <v>3.092739478093014</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.011795750626274</v>
+        <v>3.004652358323798</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.907222261764668</v>
+        <v>2.908029219497879</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.864884782460819</v>
+        <v>2.859191385629055</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.016604295507679</v>
+        <v>3.023518707701308</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.970231685620771</v>
+        <v>2.968780890096287</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.946041736114711</v>
+        <v>2.939856151290485</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.887159949871842</v>
+        <v>2.889595391767471</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.05742499249494</v>
+        <v>3.058819904719088</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.004033303314585</v>
+        <v>3.000884120919049</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2.938057538399788</v>
+        <v>2.940522537945895</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2.892076715957399</v>
+        <v>2.891661057408308</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>3.056622689784203</v>
+        <v>3.052639990306395</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.135546704925867</v>
+        <v>3.137456649443295</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.023776087309498</v>
+        <v>3.033022904292584</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.969294008562962</v>
+        <v>2.969315823735787</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.138100814148276</v>
+        <v>3.143524901952379</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.076754398850106</v>
+        <v>3.069157265058907</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.048901936459272</v>
+        <v>3.047989140489496</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.996620262311365</v>
+        <v>2.998201949453633</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.146693556073357</v>
+        <v>3.143011927114067</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.084201665592219</v>
+        <v>3.082316784116098</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3.015431770668121</v>
+        <v>3.015805828088338</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2.968046949928886</v>
+        <v>2.964204205184545</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>3.132257095996362</v>
+        <v>3.130832469316754</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>3.092847066809843</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>3.097554103607112</v>
+        <v>3.097554103607113</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.935482688603792</v>
+        <v>2.943072703402232</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.010537916250454</v>
+        <v>3.004532824699469</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.051409080394338</v>
+        <v>3.045739117535755</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.058361267600305</v>
+        <v>3.055013343102017</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>2.985161561317902</v>
+        <v>2.986166910405259</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.957544604469692</v>
+        <v>2.956207530183136</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>3.035439594923337</v>
+        <v>3.038542670929741</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>3.053148706195439</v>
+        <v>3.046522081057238</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.977038645876742</v>
+        <v>2.979003708607806</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2.98872705971162</v>
+        <v>2.992060811258189</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3.055512851949348</v>
+        <v>3.059512533568184</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>3.065967503080023</v>
+        <v>3.067491106839866</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.033898144122937</v>
+        <v>3.040879755003806</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.096295283215459</v>
+        <v>3.091121356599184</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.161949184890602</v>
+        <v>3.150974784324494</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.15898634994084</v>
+        <v>3.155105538093296</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.075044456330065</v>
+        <v>3.074622266064134</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.039874245030864</v>
+        <v>3.036049959498024</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3.134031870953716</v>
+        <v>3.137136208322139</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.127345500820689</v>
+        <v>3.127993880113326</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.045852130348417</v>
+        <v>3.04410907777817</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3.050657861498705</v>
+        <v>3.05018739890361</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3.128903770566594</v>
+        <v>3.131206039398568</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>3.126806477650212</v>
+        <v>3.126828839139034</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>3.166566917554041</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>3.19030285614805</v>
+        <v>3.190302856148051</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.063022082265296</v>
+        <v>3.065614088941859</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.0208915103551</v>
+        <v>3.024802789639986</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.12774836782364</v>
+        <v>3.126241231720202</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.163814384263349</v>
+        <v>3.163894288606149</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.061623565555469</v>
+        <v>3.062048595341742</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.028926257179146</v>
+        <v>3.028281582204472</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.143401961487057</v>
+        <v>3.144107488652554</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.166741536256982</v>
+        <v>3.166481460045382</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.069282273188272</v>
+        <v>3.070088953487561</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3.033388109678149</v>
+        <v>3.034513169280482</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3.14525178911658</v>
+        <v>3.145847755490431</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>3.173839644616713</v>
+        <v>3.172321724017874</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.115856355727608</v>
+        <v>3.118086214821792</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.078213074816071</v>
+        <v>3.079025864842256</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.190296805341144</v>
+        <v>3.190441049006361</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.221985122882554</v>
+        <v>3.221494693009212</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.111848746747726</v>
+        <v>3.111912367800636</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.078518856966284</v>
+        <v>3.080767373803869</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.208965445374361</v>
+        <v>3.205423213515294</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.208989461740478</v>
+        <v>3.209483191302294</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.104426624204873</v>
+        <v>3.1058014523283</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3.068930546542401</v>
+        <v>3.07124740243636</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3.188734177036034</v>
+        <v>3.190934742057503</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>3.209312859288441</v>
+        <v>3.209352476543527</v>
       </c>
     </row>
     <row r="19">
